--- a/Code/Results/Cases/Case_3_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9948040923279955</v>
+        <v>1.024331898413565</v>
       </c>
       <c r="D2">
-        <v>1.013868004848079</v>
+        <v>1.029360826585827</v>
       </c>
       <c r="E2">
-        <v>1.010509165888993</v>
+        <v>1.035116203422241</v>
       </c>
       <c r="F2">
-        <v>1.018286068158204</v>
+        <v>1.04688578985722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04123753639743</v>
+        <v>1.031188489228352</v>
       </c>
       <c r="J2">
-        <v>1.017141330576921</v>
+        <v>1.029507107445881</v>
       </c>
       <c r="K2">
-        <v>1.025137458960821</v>
+        <v>1.032174962096279</v>
       </c>
       <c r="L2">
-        <v>1.021824007429428</v>
+        <v>1.037913731260087</v>
       </c>
       <c r="M2">
-        <v>1.029496394182687</v>
+        <v>1.04964997237128</v>
       </c>
       <c r="N2">
-        <v>1.009639502207859</v>
+        <v>1.013872143386366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9988156133613387</v>
+        <v>1.025188678055597</v>
       </c>
       <c r="D3">
-        <v>1.016708970414624</v>
+        <v>1.02998332774001</v>
       </c>
       <c r="E3">
-        <v>1.013949741403134</v>
+        <v>1.035906842015795</v>
       </c>
       <c r="F3">
-        <v>1.022359376047476</v>
+        <v>1.047828785796928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042079615514729</v>
+        <v>1.031309603444482</v>
       </c>
       <c r="J3">
-        <v>1.019338618107687</v>
+        <v>1.030003227856852</v>
       </c>
       <c r="K3">
-        <v>1.027132429165681</v>
+        <v>1.032606092400948</v>
       </c>
       <c r="L3">
-        <v>1.024407190617447</v>
+        <v>1.038513747836676</v>
       </c>
       <c r="M3">
-        <v>1.032713939661524</v>
+        <v>1.050404360396997</v>
       </c>
       <c r="N3">
-        <v>1.010380764875443</v>
+        <v>1.014038055163836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001362994139599</v>
+        <v>1.025743692058625</v>
       </c>
       <c r="D4">
-        <v>1.018514784012123</v>
+        <v>1.030386417640582</v>
       </c>
       <c r="E4">
-        <v>1.016140311555951</v>
+        <v>1.036419388778886</v>
       </c>
       <c r="F4">
-        <v>1.024951979612266</v>
+        <v>1.048440091147144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042604077906907</v>
+        <v>1.031386769942654</v>
       </c>
       <c r="J4">
-        <v>1.020731898532663</v>
+        <v>1.030324236166947</v>
       </c>
       <c r="K4">
-        <v>1.028394771708428</v>
+        <v>1.032884661899132</v>
       </c>
       <c r="L4">
-        <v>1.026047763193206</v>
+        <v>1.03890229334802</v>
       </c>
       <c r="M4">
-        <v>1.034758301968654</v>
+        <v>1.050892997920137</v>
       </c>
       <c r="N4">
-        <v>1.010850593513114</v>
+        <v>1.014145357910424</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00242270964578</v>
+        <v>1.02597716696196</v>
       </c>
       <c r="D5">
-        <v>1.019266375125353</v>
+        <v>1.030555944325201</v>
       </c>
       <c r="E5">
-        <v>1.017052939753369</v>
+        <v>1.036635089338931</v>
       </c>
       <c r="F5">
-        <v>1.026031920616375</v>
+        <v>1.04869735121854</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042819752108978</v>
+        <v>1.031418922206441</v>
       </c>
       <c r="J5">
-        <v>1.021310989376345</v>
+        <v>1.030459183327275</v>
       </c>
       <c r="K5">
-        <v>1.028918788781033</v>
+        <v>1.033001675337621</v>
       </c>
       <c r="L5">
-        <v>1.026730264810546</v>
+        <v>1.039065707069026</v>
       </c>
       <c r="M5">
-        <v>1.035609009783423</v>
+        <v>1.051098538796114</v>
       </c>
       <c r="N5">
-        <v>1.011045818441353</v>
+        <v>1.014190454784954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002599994016214</v>
+        <v>1.026016377003714</v>
       </c>
       <c r="D6">
-        <v>1.019392132247234</v>
+        <v>1.030584412520174</v>
       </c>
       <c r="E6">
-        <v>1.017205695477729</v>
+        <v>1.036671319609468</v>
       </c>
       <c r="F6">
-        <v>1.026212670964425</v>
+        <v>1.048740561939935</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042855684924562</v>
+        <v>1.031424303774426</v>
       </c>
       <c r="J6">
-        <v>1.021407836784096</v>
+        <v>1.03048184123693</v>
       </c>
       <c r="K6">
-        <v>1.029006386840406</v>
+        <v>1.033021316673439</v>
       </c>
       <c r="L6">
-        <v>1.02684444376901</v>
+        <v>1.039093148969667</v>
       </c>
       <c r="M6">
-        <v>1.035751342097527</v>
+        <v>1.051133056867795</v>
       </c>
       <c r="N6">
-        <v>1.011078464896565</v>
+        <v>1.014198025961537</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001377197653318</v>
+        <v>1.025746811185886</v>
       </c>
       <c r="D7">
-        <v>1.018524856302119</v>
+        <v>1.030388682600658</v>
       </c>
       <c r="E7">
-        <v>1.016152538362896</v>
+        <v>1.036422270094831</v>
       </c>
       <c r="F7">
-        <v>1.024966448663181</v>
+        <v>1.048443527620709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042606978553322</v>
+        <v>1.031387200697323</v>
       </c>
       <c r="J7">
-        <v>1.020739662245022</v>
+        <v>1.030326039357608</v>
       </c>
       <c r="K7">
-        <v>1.028401799658055</v>
+        <v>1.032886225821859</v>
       </c>
       <c r="L7">
-        <v>1.026056910816491</v>
+        <v>1.038904476619998</v>
       </c>
       <c r="M7">
-        <v>1.034769703180823</v>
+        <v>1.050895743907019</v>
       </c>
       <c r="N7">
-        <v>1.010853211043369</v>
+        <v>1.014145960549499</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9961700419784911</v>
+        <v>1.024621321780036</v>
       </c>
       <c r="D8">
-        <v>1.014834972959906</v>
+        <v>1.029571142665966</v>
       </c>
       <c r="E8">
-        <v>1.011679480314736</v>
+        <v>1.035383205558066</v>
       </c>
       <c r="F8">
-        <v>1.019671787821861</v>
+        <v>1.047204245971983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041526397401702</v>
+        <v>1.031229668938038</v>
       </c>
       <c r="J8">
-        <v>1.017889929525142</v>
+        <v>1.029674776000099</v>
       </c>
       <c r="K8">
-        <v>1.025817675776688</v>
+        <v>1.032320746795599</v>
       </c>
       <c r="L8">
-        <v>1.022703536006697</v>
+        <v>1.038116447844313</v>
       </c>
       <c r="M8">
-        <v>1.030591725537963</v>
+        <v>1.04990481727432</v>
       </c>
       <c r="N8">
-        <v>1.009892084861978</v>
+        <v>1.013928224808669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866066635018652</v>
+        <v>1.022642881814152</v>
       </c>
       <c r="D9">
-        <v>1.008074590988902</v>
+        <v>1.028132831096187</v>
       </c>
       <c r="E9">
-        <v>1.003511523277452</v>
+        <v>1.033559597866402</v>
       </c>
       <c r="F9">
-        <v>1.009996355020811</v>
+        <v>1.045029159440425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03946216461825</v>
+        <v>1.030942896972778</v>
       </c>
       <c r="J9">
-        <v>1.012641404470747</v>
+        <v>1.028527106549658</v>
       </c>
       <c r="K9">
-        <v>1.021038008049784</v>
+        <v>1.031321287992494</v>
       </c>
       <c r="L9">
-        <v>1.01654788422611</v>
+        <v>1.036730157155052</v>
       </c>
       <c r="M9">
-        <v>1.022929303888851</v>
+        <v>1.048162561556429</v>
       </c>
       <c r="N9">
-        <v>1.008120459015861</v>
+        <v>1.013544158426654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9799446134679105</v>
+        <v>1.021327247899774</v>
       </c>
       <c r="D10">
-        <v>1.003379893586976</v>
+        <v>1.027175605734728</v>
       </c>
       <c r="E10">
-        <v>0.9978558599960419</v>
+        <v>1.032348907215044</v>
       </c>
       <c r="F10">
-        <v>1.003290940780083</v>
+        <v>1.043585046947301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037972843774703</v>
+        <v>1.030745581778463</v>
       </c>
       <c r="J10">
-        <v>1.008977171646435</v>
+        <v>1.027762024314585</v>
       </c>
       <c r="K10">
-        <v>1.017688389989778</v>
+        <v>1.030653031970745</v>
       </c>
       <c r="L10">
-        <v>1.01226393576875</v>
+        <v>1.035807601634606</v>
       </c>
       <c r="M10">
-        <v>1.017601029414543</v>
+        <v>1.047003762155801</v>
       </c>
       <c r="N10">
-        <v>1.006882791574404</v>
+        <v>1.013287879803995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9769857467183657</v>
+        <v>1.020758371197264</v>
       </c>
       <c r="D11">
-        <v>1.00129914129969</v>
+        <v>1.026761529617242</v>
       </c>
       <c r="E11">
-        <v>0.9953526701977937</v>
+        <v>1.031825883463704</v>
       </c>
       <c r="F11">
-        <v>1.000321471929774</v>
+        <v>1.042961162524129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037299785210115</v>
+        <v>1.030658695402484</v>
       </c>
       <c r="J11">
-        <v>1.007348307912877</v>
+        <v>1.027430757521211</v>
       </c>
       <c r="K11">
-        <v>1.016196599235296</v>
+        <v>1.030363223034945</v>
       </c>
       <c r="L11">
-        <v>1.010362763763562</v>
+        <v>1.035408530454174</v>
       </c>
       <c r="M11">
-        <v>1.015237328306436</v>
+        <v>1.046502650285169</v>
       </c>
       <c r="N11">
-        <v>1.006332455694091</v>
+        <v>1.013176858344531</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.975874987072671</v>
+        <v>1.020547186937694</v>
       </c>
       <c r="D12">
-        <v>1.00051875300702</v>
+        <v>1.02660778649437</v>
       </c>
       <c r="E12">
-        <v>0.994414329995958</v>
+        <v>1.031631793166013</v>
       </c>
       <c r="F12">
-        <v>0.9992080716798054</v>
+        <v>1.042729640061866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037045427532227</v>
+        <v>1.030626205087657</v>
       </c>
       <c r="J12">
-        <v>1.006736655847122</v>
+        <v>1.027307714316326</v>
       </c>
       <c r="K12">
-        <v>1.015636021271889</v>
+        <v>1.030255508802248</v>
       </c>
       <c r="L12">
-        <v>1.009649330771742</v>
+        <v>1.035260359324093</v>
       </c>
       <c r="M12">
-        <v>1.014350459529569</v>
+        <v>1.04631661514144</v>
       </c>
       <c r="N12">
-        <v>1.006125779975006</v>
+        <v>1.013135612799033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9761137878970852</v>
+        <v>1.020592481139486</v>
       </c>
       <c r="D13">
-        <v>1.000686493626692</v>
+        <v>1.02664076202854</v>
       </c>
       <c r="E13">
-        <v>0.9946160003680872</v>
+        <v>1.031673417839086</v>
       </c>
       <c r="F13">
-        <v>0.9994473790332559</v>
+        <v>1.042779292613323</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037100187161663</v>
+        <v>1.030633184172962</v>
       </c>
       <c r="J13">
-        <v>1.006868161448571</v>
+        <v>1.027334107299771</v>
       </c>
       <c r="K13">
-        <v>1.015756563561043</v>
+        <v>1.030278616850235</v>
       </c>
       <c r="L13">
-        <v>1.009802698019067</v>
+        <v>1.035292139721681</v>
       </c>
       <c r="M13">
-        <v>1.014541104525536</v>
+        <v>1.046356515755503</v>
       </c>
       <c r="N13">
-        <v>1.006170216240484</v>
+        <v>1.013144460428627</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9768941731386038</v>
+        <v>1.020740912145742</v>
       </c>
       <c r="D14">
-        <v>1.00123478907222</v>
+        <v>1.026748819863591</v>
       </c>
       <c r="E14">
-        <v>0.9952752833579431</v>
+        <v>1.031809836135384</v>
       </c>
       <c r="F14">
-        <v>1.000229653187499</v>
+        <v>1.042942020388731</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037278849467118</v>
+        <v>1.030656014162824</v>
       </c>
       <c r="J14">
-        <v>1.007297885251067</v>
+        <v>1.027420586642335</v>
       </c>
       <c r="K14">
-        <v>1.016150394934026</v>
+        <v>1.030354320687841</v>
       </c>
       <c r="L14">
-        <v>1.010303941005841</v>
+        <v>1.03539628131631</v>
       </c>
       <c r="M14">
-        <v>1.015164203062152</v>
+        <v>1.046487270510694</v>
       </c>
       <c r="N14">
-        <v>1.006315418388007</v>
+        <v>1.013173449119815</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.977373425783329</v>
+        <v>1.020832381581341</v>
       </c>
       <c r="D15">
-        <v>1.001571608176012</v>
+        <v>1.026815406287473</v>
       </c>
       <c r="E15">
-        <v>0.9956803450324553</v>
+        <v>1.031893912385059</v>
       </c>
       <c r="F15">
-        <v>1.000710243752947</v>
+        <v>1.043042311015983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037388348546284</v>
+        <v>1.030670051757959</v>
       </c>
       <c r="J15">
-        <v>1.00756176659189</v>
+        <v>1.027473869989557</v>
       </c>
       <c r="K15">
-        <v>1.016392183852867</v>
+        <v>1.030400955574537</v>
       </c>
       <c r="L15">
-        <v>1.010611802575559</v>
+        <v>1.035460454603147</v>
       </c>
       <c r="M15">
-        <v>1.015546925143169</v>
+        <v>1.046567846144376</v>
       </c>
       <c r="N15">
-        <v>1.006404580423063</v>
+        <v>1.013191309064279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.980139374015784</v>
+        <v>1.021365019383952</v>
       </c>
       <c r="D16">
-        <v>1.003516951052201</v>
+        <v>1.027203095366547</v>
       </c>
       <c r="E16">
-        <v>0.9980208123993584</v>
+        <v>1.032383644289024</v>
       </c>
       <c r="F16">
-        <v>1.003486582977179</v>
+        <v>1.043626482293794</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03801690871702</v>
+        <v>1.03075131769641</v>
       </c>
       <c r="J16">
-        <v>1.009084361164791</v>
+        <v>1.027784009900329</v>
       </c>
       <c r="K16">
-        <v>1.017786502907061</v>
+        <v>1.030672256269554</v>
       </c>
       <c r="L16">
-        <v>1.012389110751412</v>
+        <v>1.035834095248835</v>
       </c>
       <c r="M16">
-        <v>1.017756676582471</v>
+        <v>1.047037033253923</v>
       </c>
       <c r="N16">
-        <v>1.006919004200444</v>
+        <v>1.013295246893789</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9818541396902516</v>
+        <v>1.021699344613909</v>
       </c>
       <c r="D17">
-        <v>1.004724174473322</v>
+        <v>1.027446393175342</v>
       </c>
       <c r="E17">
-        <v>0.9994741307504105</v>
+        <v>1.032691166226032</v>
       </c>
       <c r="F17">
-        <v>1.00521010246767</v>
+        <v>1.043993300488813</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038403562052825</v>
+        <v>1.030801906560836</v>
       </c>
       <c r="J17">
-        <v>1.010027949930123</v>
+        <v>1.027978558368328</v>
       </c>
       <c r="K17">
-        <v>1.018649875740199</v>
+        <v>1.030842316533762</v>
       </c>
       <c r="L17">
-        <v>1.013491386646215</v>
+        <v>1.036068578594762</v>
       </c>
       <c r="M17">
-        <v>1.019127392275427</v>
+        <v>1.047331518649419</v>
       </c>
       <c r="N17">
-        <v>1.007237766521376</v>
+        <v>1.013360430977567</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9828472184917617</v>
+        <v>1.021894428095371</v>
       </c>
       <c r="D18">
-        <v>1.005423725674425</v>
+        <v>1.027588343993865</v>
       </c>
       <c r="E18">
-        <v>1.000316620164491</v>
+        <v>1.03287065551805</v>
       </c>
       <c r="F18">
-        <v>1.006209071005792</v>
+        <v>1.044207396787087</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038626380700825</v>
+        <v>1.030831274474776</v>
       </c>
       <c r="J18">
-        <v>1.010574274489775</v>
+        <v>1.028092036937895</v>
       </c>
       <c r="K18">
-        <v>1.019149490713442</v>
+        <v>1.030941466337224</v>
       </c>
       <c r="L18">
-        <v>1.014129890569199</v>
+        <v>1.036205387405834</v>
       </c>
       <c r="M18">
-        <v>1.019921481637154</v>
+        <v>1.047503350179185</v>
       </c>
       <c r="N18">
-        <v>1.007422310477623</v>
+        <v>1.013398446787949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831846424213745</v>
+        <v>1.02196095957634</v>
       </c>
       <c r="D19">
-        <v>1.005661482989155</v>
+        <v>1.027636752170626</v>
       </c>
       <c r="E19">
-        <v>1.000603015728223</v>
+        <v>1.032931876512215</v>
       </c>
       <c r="F19">
-        <v>1.006548634113774</v>
+        <v>1.044280421352097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038701900045544</v>
+        <v>1.030841264457031</v>
       </c>
       <c r="J19">
-        <v>1.010759877374243</v>
+        <v>1.02813073045621</v>
       </c>
       <c r="K19">
-        <v>1.019319179284374</v>
+        <v>1.030975266445863</v>
       </c>
       <c r="L19">
-        <v>1.014346860858374</v>
+        <v>1.036252042187968</v>
       </c>
       <c r="M19">
-        <v>1.020191336811685</v>
+        <v>1.047561950959054</v>
       </c>
       <c r="N19">
-        <v>1.00748500298106</v>
+        <v>1.01341140834143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9816709014633378</v>
+        <v>1.021663466681787</v>
       </c>
       <c r="D20">
-        <v>1.004595128960144</v>
+        <v>1.027420285542879</v>
       </c>
       <c r="E20">
-        <v>0.9993187447585925</v>
+        <v>1.032658159923489</v>
       </c>
       <c r="F20">
-        <v>1.005025843485979</v>
+        <v>1.043953930137959</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038362358938142</v>
+        <v>1.030796493301199</v>
       </c>
       <c r="J20">
-        <v>1.00992713313087</v>
+        <v>1.027957684970307</v>
       </c>
       <c r="K20">
-        <v>1.018557656950823</v>
+        <v>1.030824075164153</v>
       </c>
       <c r="L20">
-        <v>1.013373583805289</v>
+        <v>1.03604341674406</v>
       </c>
       <c r="M20">
-        <v>1.018980891447298</v>
+        <v>1.047299916607012</v>
       </c>
       <c r="N20">
-        <v>1.007203710204125</v>
+        <v>1.013353437852366</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9766646969511735</v>
+        <v>1.020697199537752</v>
       </c>
       <c r="D21">
-        <v>1.001073539424792</v>
+        <v>1.026716997766061</v>
       </c>
       <c r="E21">
-        <v>0.9950813800855479</v>
+        <v>1.031769659253776</v>
       </c>
       <c r="F21">
-        <v>0.9999995843600552</v>
+        <v>1.042894095138057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037226359066595</v>
+        <v>1.030649297280715</v>
       </c>
       <c r="J21">
-        <v>1.007171527330578</v>
+        <v>1.027395120510472</v>
       </c>
       <c r="K21">
-        <v>1.016034601776254</v>
+        <v>1.030332029614293</v>
       </c>
       <c r="L21">
-        <v>1.01015654026725</v>
+        <v>1.035365612498881</v>
       </c>
       <c r="M21">
-        <v>1.014980964616082</v>
+        <v>1.046448763717906</v>
       </c>
       <c r="N21">
-        <v>1.006272723017857</v>
+        <v>1.013164912868828</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734490717107028</v>
+        <v>1.020090374904402</v>
       </c>
       <c r="D22">
-        <v>0.9988157946413934</v>
+        <v>1.02627517926354</v>
       </c>
       <c r="E22">
-        <v>0.9923675352894762</v>
+        <v>1.031212089105446</v>
       </c>
       <c r="F22">
-        <v>0.9967788954397967</v>
+        <v>1.042228985347866</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036486855842021</v>
+        <v>1.030555495012204</v>
       </c>
       <c r="J22">
-        <v>1.005400521063721</v>
+        <v>1.027041437826475</v>
       </c>
       <c r="K22">
-        <v>1.014410747429964</v>
+        <v>1.030022278140122</v>
       </c>
       <c r="L22">
-        <v>1.008091724431491</v>
+        <v>1.034939807574845</v>
       </c>
       <c r="M22">
-        <v>1.012414434252977</v>
+        <v>1.045914190140479</v>
       </c>
       <c r="N22">
-        <v>1.005674270335442</v>
+        <v>1.013046338107578</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751603811990405</v>
+        <v>1.020411996725068</v>
       </c>
       <c r="D23">
-        <v>1.0000169055662</v>
+        <v>1.026509360287313</v>
       </c>
       <c r="E23">
-        <v>0.9938110391721355</v>
+        <v>1.031507566017817</v>
       </c>
       <c r="F23">
-        <v>0.9984921493943172</v>
+        <v>1.042581453500925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036881316798065</v>
+        <v>1.030605340048076</v>
       </c>
       <c r="J23">
-        <v>1.006343105806172</v>
+        <v>1.027228929041786</v>
       </c>
       <c r="K23">
-        <v>1.015275223830876</v>
+        <v>1.030186519129473</v>
       </c>
       <c r="L23">
-        <v>1.009190425562579</v>
+        <v>1.035165500479164</v>
       </c>
       <c r="M23">
-        <v>1.013780030780502</v>
+        <v>1.046197522202899</v>
       </c>
       <c r="N23">
-        <v>1.005992795183505</v>
+        <v>1.013109200627541</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9817537208774082</v>
+        <v>1.021679678136497</v>
       </c>
       <c r="D24">
-        <v>1.00465345327208</v>
+        <v>1.027432082336919</v>
       </c>
       <c r="E24">
-        <v>0.9993889730616015</v>
+        <v>1.032673073689728</v>
       </c>
       <c r="F24">
-        <v>1.005109121718378</v>
+        <v>1.043971719480338</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038380985217129</v>
+        <v>1.030798939751987</v>
       </c>
       <c r="J24">
-        <v>1.009972700413615</v>
+        <v>1.027967116755155</v>
       </c>
       <c r="K24">
-        <v>1.018599338921206</v>
+        <v>1.030832317788359</v>
       </c>
       <c r="L24">
-        <v>1.013426827521255</v>
+        <v>1.036054786182076</v>
       </c>
       <c r="M24">
-        <v>1.019047105604979</v>
+        <v>1.047314196014645</v>
       </c>
       <c r="N24">
-        <v>1.007219103060652</v>
+        <v>1.013356597760017</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9891275347496696</v>
+        <v>1.023153776179218</v>
       </c>
       <c r="D25">
-        <v>1.00985432865232</v>
+        <v>1.028504386052312</v>
       </c>
       <c r="E25">
-        <v>1.005658820387797</v>
+        <v>1.03403016188811</v>
       </c>
       <c r="F25">
-        <v>1.012540905947247</v>
+        <v>1.045590431272697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040015340046754</v>
+        <v>1.031018118384643</v>
       </c>
       <c r="J25">
-        <v>1.014026423768321</v>
+        <v>1.028823806409782</v>
       </c>
       <c r="K25">
-        <v>1.022301570921838</v>
+        <v>1.031580021287761</v>
       </c>
       <c r="L25">
-        <v>1.018169921034389</v>
+        <v>1.037088263677518</v>
       </c>
       <c r="M25">
-        <v>1.024947610599145</v>
+        <v>1.048612506586321</v>
       </c>
       <c r="N25">
-        <v>1.008588121827509</v>
+        <v>1.013643492049668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024331898413565</v>
+        <v>0.994804092327995</v>
       </c>
       <c r="D2">
-        <v>1.029360826585827</v>
+        <v>1.013868004848079</v>
       </c>
       <c r="E2">
-        <v>1.035116203422241</v>
+        <v>1.010509165888992</v>
       </c>
       <c r="F2">
-        <v>1.04688578985722</v>
+        <v>1.018286068158203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031188489228352</v>
+        <v>1.04123753639743</v>
       </c>
       <c r="J2">
-        <v>1.029507107445881</v>
+        <v>1.01714133057692</v>
       </c>
       <c r="K2">
-        <v>1.032174962096279</v>
+        <v>1.02513745896082</v>
       </c>
       <c r="L2">
-        <v>1.037913731260087</v>
+        <v>1.021824007429427</v>
       </c>
       <c r="M2">
-        <v>1.04964997237128</v>
+        <v>1.029496394182686</v>
       </c>
       <c r="N2">
-        <v>1.013872143386366</v>
+        <v>1.009639502207859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025188678055597</v>
+        <v>0.9988156133613383</v>
       </c>
       <c r="D3">
-        <v>1.02998332774001</v>
+        <v>1.016708970414624</v>
       </c>
       <c r="E3">
-        <v>1.035906842015795</v>
+        <v>1.013949741403133</v>
       </c>
       <c r="F3">
-        <v>1.047828785796928</v>
+        <v>1.022359376047475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031309603444482</v>
+        <v>1.042079615514729</v>
       </c>
       <c r="J3">
-        <v>1.030003227856852</v>
+        <v>1.019338618107687</v>
       </c>
       <c r="K3">
-        <v>1.032606092400948</v>
+        <v>1.02713242916568</v>
       </c>
       <c r="L3">
-        <v>1.038513747836676</v>
+        <v>1.024407190617447</v>
       </c>
       <c r="M3">
-        <v>1.050404360396997</v>
+        <v>1.032713939661524</v>
       </c>
       <c r="N3">
-        <v>1.014038055163836</v>
+        <v>1.010380764875443</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025743692058625</v>
+        <v>1.0013629941396</v>
       </c>
       <c r="D4">
-        <v>1.030386417640582</v>
+        <v>1.018514784012123</v>
       </c>
       <c r="E4">
-        <v>1.036419388778886</v>
+        <v>1.016140311555951</v>
       </c>
       <c r="F4">
-        <v>1.048440091147144</v>
+        <v>1.024951979612266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031386769942654</v>
+        <v>1.042604077906907</v>
       </c>
       <c r="J4">
-        <v>1.030324236166947</v>
+        <v>1.020731898532663</v>
       </c>
       <c r="K4">
-        <v>1.032884661899132</v>
+        <v>1.028394771708428</v>
       </c>
       <c r="L4">
-        <v>1.03890229334802</v>
+        <v>1.026047763193207</v>
       </c>
       <c r="M4">
-        <v>1.050892997920137</v>
+        <v>1.034758301968655</v>
       </c>
       <c r="N4">
-        <v>1.014145357910424</v>
+        <v>1.010850593513114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02597716696196</v>
+        <v>1.002422709645781</v>
       </c>
       <c r="D5">
-        <v>1.030555944325201</v>
+        <v>1.019266375125354</v>
       </c>
       <c r="E5">
-        <v>1.036635089338931</v>
+        <v>1.017052939753369</v>
       </c>
       <c r="F5">
-        <v>1.04869735121854</v>
+        <v>1.026031920616375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031418922206441</v>
+        <v>1.042819752108978</v>
       </c>
       <c r="J5">
-        <v>1.030459183327275</v>
+        <v>1.021310989376346</v>
       </c>
       <c r="K5">
-        <v>1.033001675337621</v>
+        <v>1.028918788781033</v>
       </c>
       <c r="L5">
-        <v>1.039065707069026</v>
+        <v>1.026730264810546</v>
       </c>
       <c r="M5">
-        <v>1.051098538796114</v>
+        <v>1.035609009783423</v>
       </c>
       <c r="N5">
-        <v>1.014190454784954</v>
+        <v>1.011045818441354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026016377003714</v>
+        <v>1.002599994016214</v>
       </c>
       <c r="D6">
-        <v>1.030584412520174</v>
+        <v>1.019392132247234</v>
       </c>
       <c r="E6">
-        <v>1.036671319609468</v>
+        <v>1.017205695477728</v>
       </c>
       <c r="F6">
-        <v>1.048740561939935</v>
+        <v>1.026212670964425</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031424303774426</v>
+        <v>1.042855684924562</v>
       </c>
       <c r="J6">
-        <v>1.03048184123693</v>
+        <v>1.021407836784096</v>
       </c>
       <c r="K6">
-        <v>1.033021316673439</v>
+        <v>1.029006386840406</v>
       </c>
       <c r="L6">
-        <v>1.039093148969667</v>
+        <v>1.02684444376901</v>
       </c>
       <c r="M6">
-        <v>1.051133056867795</v>
+        <v>1.035751342097527</v>
       </c>
       <c r="N6">
-        <v>1.014198025961537</v>
+        <v>1.011078464896565</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025746811185886</v>
+        <v>1.001377197653317</v>
       </c>
       <c r="D7">
-        <v>1.030388682600658</v>
+        <v>1.018524856302119</v>
       </c>
       <c r="E7">
-        <v>1.036422270094831</v>
+        <v>1.016152538362895</v>
       </c>
       <c r="F7">
-        <v>1.048443527620709</v>
+        <v>1.02496644866318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031387200697323</v>
+        <v>1.042606978553322</v>
       </c>
       <c r="J7">
-        <v>1.030326039357608</v>
+        <v>1.020739662245022</v>
       </c>
       <c r="K7">
-        <v>1.032886225821859</v>
+        <v>1.028401799658054</v>
       </c>
       <c r="L7">
-        <v>1.038904476619998</v>
+        <v>1.026056910816491</v>
       </c>
       <c r="M7">
-        <v>1.050895743907019</v>
+        <v>1.034769703180822</v>
       </c>
       <c r="N7">
-        <v>1.014145960549499</v>
+        <v>1.010853211043369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024621321780036</v>
+        <v>0.9961700419784915</v>
       </c>
       <c r="D8">
-        <v>1.029571142665966</v>
+        <v>1.014834972959906</v>
       </c>
       <c r="E8">
-        <v>1.035383205558066</v>
+        <v>1.011679480314736</v>
       </c>
       <c r="F8">
-        <v>1.047204245971983</v>
+        <v>1.019671787821862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031229668938038</v>
+        <v>1.041526397401702</v>
       </c>
       <c r="J8">
-        <v>1.029674776000099</v>
+        <v>1.017889929525142</v>
       </c>
       <c r="K8">
-        <v>1.032320746795599</v>
+        <v>1.025817675776688</v>
       </c>
       <c r="L8">
-        <v>1.038116447844313</v>
+        <v>1.022703536006697</v>
       </c>
       <c r="M8">
-        <v>1.04990481727432</v>
+        <v>1.030591725537963</v>
       </c>
       <c r="N8">
-        <v>1.013928224808669</v>
+        <v>1.009892084861978</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022642881814152</v>
+        <v>0.9866066635018651</v>
       </c>
       <c r="D9">
-        <v>1.028132831096187</v>
+        <v>1.008074590988902</v>
       </c>
       <c r="E9">
-        <v>1.033559597866402</v>
+        <v>1.003511523277451</v>
       </c>
       <c r="F9">
-        <v>1.045029159440425</v>
+        <v>1.009996355020811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030942896972778</v>
+        <v>1.03946216461825</v>
       </c>
       <c r="J9">
-        <v>1.028527106549658</v>
+        <v>1.012641404470747</v>
       </c>
       <c r="K9">
-        <v>1.031321287992494</v>
+        <v>1.021038008049784</v>
       </c>
       <c r="L9">
-        <v>1.036730157155052</v>
+        <v>1.01654788422611</v>
       </c>
       <c r="M9">
-        <v>1.048162561556429</v>
+        <v>1.022929303888851</v>
       </c>
       <c r="N9">
-        <v>1.013544158426654</v>
+        <v>1.008120459015861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021327247899774</v>
+        <v>0.9799446134679111</v>
       </c>
       <c r="D10">
-        <v>1.027175605734728</v>
+        <v>1.003379893586977</v>
       </c>
       <c r="E10">
-        <v>1.032348907215044</v>
+        <v>0.9978558599960418</v>
       </c>
       <c r="F10">
-        <v>1.043585046947301</v>
+        <v>1.003290940780083</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030745581778463</v>
+        <v>1.037972843774703</v>
       </c>
       <c r="J10">
-        <v>1.027762024314585</v>
+        <v>1.008977171646435</v>
       </c>
       <c r="K10">
-        <v>1.030653031970745</v>
+        <v>1.017688389989778</v>
       </c>
       <c r="L10">
-        <v>1.035807601634606</v>
+        <v>1.01226393576875</v>
       </c>
       <c r="M10">
-        <v>1.047003762155801</v>
+        <v>1.017601029414543</v>
       </c>
       <c r="N10">
-        <v>1.013287879803995</v>
+        <v>1.006882791574404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020758371197264</v>
+        <v>0.9769857467183661</v>
       </c>
       <c r="D11">
-        <v>1.026761529617242</v>
+        <v>1.00129914129969</v>
       </c>
       <c r="E11">
-        <v>1.031825883463704</v>
+        <v>0.9953526701977938</v>
       </c>
       <c r="F11">
-        <v>1.042961162524129</v>
+        <v>1.000321471929774</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030658695402484</v>
+        <v>1.037299785210115</v>
       </c>
       <c r="J11">
-        <v>1.027430757521211</v>
+        <v>1.007348307912878</v>
       </c>
       <c r="K11">
-        <v>1.030363223034945</v>
+        <v>1.016196599235296</v>
       </c>
       <c r="L11">
-        <v>1.035408530454174</v>
+        <v>1.010362763763562</v>
       </c>
       <c r="M11">
-        <v>1.046502650285169</v>
+        <v>1.015237328306436</v>
       </c>
       <c r="N11">
-        <v>1.013176858344531</v>
+        <v>1.006332455694091</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020547186937694</v>
+        <v>0.9758749870726718</v>
       </c>
       <c r="D12">
-        <v>1.02660778649437</v>
+        <v>1.000518753007021</v>
       </c>
       <c r="E12">
-        <v>1.031631793166013</v>
+        <v>0.9944143299959585</v>
       </c>
       <c r="F12">
-        <v>1.042729640061866</v>
+        <v>0.9992080716798059</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030626205087657</v>
+        <v>1.037045427532228</v>
       </c>
       <c r="J12">
-        <v>1.027307714316326</v>
+        <v>1.006736655847122</v>
       </c>
       <c r="K12">
-        <v>1.030255508802248</v>
+        <v>1.01563602127189</v>
       </c>
       <c r="L12">
-        <v>1.035260359324093</v>
+        <v>1.009649330771742</v>
       </c>
       <c r="M12">
-        <v>1.04631661514144</v>
+        <v>1.01435045952957</v>
       </c>
       <c r="N12">
-        <v>1.013135612799033</v>
+        <v>1.006125779975006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020592481139486</v>
+        <v>0.9761137878970855</v>
       </c>
       <c r="D13">
-        <v>1.02664076202854</v>
+        <v>1.000686493626692</v>
       </c>
       <c r="E13">
-        <v>1.031673417839086</v>
+        <v>0.9946160003680869</v>
       </c>
       <c r="F13">
-        <v>1.042779292613323</v>
+        <v>0.9994473790332558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030633184172962</v>
+        <v>1.037100187161663</v>
       </c>
       <c r="J13">
-        <v>1.027334107299771</v>
+        <v>1.006868161448571</v>
       </c>
       <c r="K13">
-        <v>1.030278616850235</v>
+        <v>1.015756563561043</v>
       </c>
       <c r="L13">
-        <v>1.035292139721681</v>
+        <v>1.009802698019066</v>
       </c>
       <c r="M13">
-        <v>1.046356515755503</v>
+        <v>1.014541104525535</v>
       </c>
       <c r="N13">
-        <v>1.013144460428627</v>
+        <v>1.006170216240484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020740912145742</v>
+        <v>0.9768941731386036</v>
       </c>
       <c r="D14">
-        <v>1.026748819863591</v>
+        <v>1.00123478907222</v>
       </c>
       <c r="E14">
-        <v>1.031809836135384</v>
+        <v>0.9952752833579429</v>
       </c>
       <c r="F14">
-        <v>1.042942020388731</v>
+        <v>1.000229653187498</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030656014162824</v>
+        <v>1.037278849467118</v>
       </c>
       <c r="J14">
-        <v>1.027420586642335</v>
+        <v>1.007297885251067</v>
       </c>
       <c r="K14">
-        <v>1.030354320687841</v>
+        <v>1.016150394934025</v>
       </c>
       <c r="L14">
-        <v>1.03539628131631</v>
+        <v>1.010303941005841</v>
       </c>
       <c r="M14">
-        <v>1.046487270510694</v>
+        <v>1.015164203062152</v>
       </c>
       <c r="N14">
-        <v>1.013173449119815</v>
+        <v>1.006315418388006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020832381581341</v>
+        <v>0.9773734257833285</v>
       </c>
       <c r="D15">
-        <v>1.026815406287473</v>
+        <v>1.001571608176012</v>
       </c>
       <c r="E15">
-        <v>1.031893912385059</v>
+        <v>0.9956803450324548</v>
       </c>
       <c r="F15">
-        <v>1.043042311015983</v>
+        <v>1.000710243752946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030670051757959</v>
+        <v>1.037388348546284</v>
       </c>
       <c r="J15">
-        <v>1.027473869989557</v>
+        <v>1.00756176659189</v>
       </c>
       <c r="K15">
-        <v>1.030400955574537</v>
+        <v>1.016392183852866</v>
       </c>
       <c r="L15">
-        <v>1.035460454603147</v>
+        <v>1.010611802575558</v>
       </c>
       <c r="M15">
-        <v>1.046567846144376</v>
+        <v>1.015546925143168</v>
       </c>
       <c r="N15">
-        <v>1.013191309064279</v>
+        <v>1.006404580423063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021365019383952</v>
+        <v>0.9801393740157838</v>
       </c>
       <c r="D16">
-        <v>1.027203095366547</v>
+        <v>1.003516951052201</v>
       </c>
       <c r="E16">
-        <v>1.032383644289024</v>
+        <v>0.998020812399358</v>
       </c>
       <c r="F16">
-        <v>1.043626482293794</v>
+        <v>1.003486582977179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03075131769641</v>
+        <v>1.03801690871702</v>
       </c>
       <c r="J16">
-        <v>1.027784009900329</v>
+        <v>1.009084361164791</v>
       </c>
       <c r="K16">
-        <v>1.030672256269554</v>
+        <v>1.017786502907061</v>
       </c>
       <c r="L16">
-        <v>1.035834095248835</v>
+        <v>1.012389110751411</v>
       </c>
       <c r="M16">
-        <v>1.047037033253923</v>
+        <v>1.017756676582471</v>
       </c>
       <c r="N16">
-        <v>1.013295246893789</v>
+        <v>1.006919004200444</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021699344613909</v>
+        <v>0.9818541396902511</v>
       </c>
       <c r="D17">
-        <v>1.027446393175342</v>
+        <v>1.004724174473322</v>
       </c>
       <c r="E17">
-        <v>1.032691166226032</v>
+        <v>0.9994741307504097</v>
       </c>
       <c r="F17">
-        <v>1.043993300488813</v>
+        <v>1.005210102467669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030801906560836</v>
+        <v>1.038403562052825</v>
       </c>
       <c r="J17">
-        <v>1.027978558368328</v>
+        <v>1.010027949930123</v>
       </c>
       <c r="K17">
-        <v>1.030842316533762</v>
+        <v>1.018649875740199</v>
       </c>
       <c r="L17">
-        <v>1.036068578594762</v>
+        <v>1.013491386646214</v>
       </c>
       <c r="M17">
-        <v>1.047331518649419</v>
+        <v>1.019127392275426</v>
       </c>
       <c r="N17">
-        <v>1.013360430977567</v>
+        <v>1.007237766521375</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021894428095371</v>
+        <v>0.9828472184917617</v>
       </c>
       <c r="D18">
-        <v>1.027588343993865</v>
+        <v>1.005423725674425</v>
       </c>
       <c r="E18">
-        <v>1.03287065551805</v>
+        <v>1.00031662016449</v>
       </c>
       <c r="F18">
-        <v>1.044207396787087</v>
+        <v>1.006209071005792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030831274474776</v>
+        <v>1.038626380700825</v>
       </c>
       <c r="J18">
-        <v>1.028092036937895</v>
+        <v>1.010574274489775</v>
       </c>
       <c r="K18">
-        <v>1.030941466337224</v>
+        <v>1.019149490713442</v>
       </c>
       <c r="L18">
-        <v>1.036205387405834</v>
+        <v>1.014129890569199</v>
       </c>
       <c r="M18">
-        <v>1.047503350179185</v>
+        <v>1.019921481637154</v>
       </c>
       <c r="N18">
-        <v>1.013398446787949</v>
+        <v>1.007422310477623</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02196095957634</v>
+        <v>0.9831846424213743</v>
       </c>
       <c r="D19">
-        <v>1.027636752170626</v>
+        <v>1.005661482989155</v>
       </c>
       <c r="E19">
-        <v>1.032931876512215</v>
+        <v>1.000603015728222</v>
       </c>
       <c r="F19">
-        <v>1.044280421352097</v>
+        <v>1.006548634113774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030841264457031</v>
+        <v>1.038701900045545</v>
       </c>
       <c r="J19">
-        <v>1.02813073045621</v>
+        <v>1.010759877374243</v>
       </c>
       <c r="K19">
-        <v>1.030975266445863</v>
+        <v>1.019319179284375</v>
       </c>
       <c r="L19">
-        <v>1.036252042187968</v>
+        <v>1.014346860858373</v>
       </c>
       <c r="M19">
-        <v>1.047561950959054</v>
+        <v>1.020191336811685</v>
       </c>
       <c r="N19">
-        <v>1.01341140834143</v>
+        <v>1.00748500298106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021663466681787</v>
+        <v>0.9816709014633376</v>
       </c>
       <c r="D20">
-        <v>1.027420285542879</v>
+        <v>1.004595128960144</v>
       </c>
       <c r="E20">
-        <v>1.032658159923489</v>
+        <v>0.9993187447585922</v>
       </c>
       <c r="F20">
-        <v>1.043953930137959</v>
+        <v>1.005025843485978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030796493301199</v>
+        <v>1.038362358938142</v>
       </c>
       <c r="J20">
-        <v>1.027957684970307</v>
+        <v>1.009927133130869</v>
       </c>
       <c r="K20">
-        <v>1.030824075164153</v>
+        <v>1.018557656950823</v>
       </c>
       <c r="L20">
-        <v>1.03604341674406</v>
+        <v>1.013373583805289</v>
       </c>
       <c r="M20">
-        <v>1.047299916607012</v>
+        <v>1.018980891447298</v>
       </c>
       <c r="N20">
-        <v>1.013353437852366</v>
+        <v>1.007203710204125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020697199537752</v>
+        <v>0.9766646969511739</v>
       </c>
       <c r="D21">
-        <v>1.026716997766061</v>
+        <v>1.001073539424793</v>
       </c>
       <c r="E21">
-        <v>1.031769659253776</v>
+        <v>0.9950813800855485</v>
       </c>
       <c r="F21">
-        <v>1.042894095138057</v>
+        <v>0.9999995843600558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030649297280715</v>
+        <v>1.037226359066595</v>
       </c>
       <c r="J21">
-        <v>1.027395120510472</v>
+        <v>1.007171527330578</v>
       </c>
       <c r="K21">
-        <v>1.030332029614293</v>
+        <v>1.016034601776254</v>
       </c>
       <c r="L21">
-        <v>1.035365612498881</v>
+        <v>1.01015654026725</v>
       </c>
       <c r="M21">
-        <v>1.046448763717906</v>
+        <v>1.014980964616083</v>
       </c>
       <c r="N21">
-        <v>1.013164912868828</v>
+        <v>1.006272723017857</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020090374904402</v>
+        <v>0.9734490717107025</v>
       </c>
       <c r="D22">
-        <v>1.02627517926354</v>
+        <v>0.9988157946413927</v>
       </c>
       <c r="E22">
-        <v>1.031212089105446</v>
+        <v>0.9923675352894756</v>
       </c>
       <c r="F22">
-        <v>1.042228985347866</v>
+        <v>0.9967788954397961</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030555495012204</v>
+        <v>1.036486855842021</v>
       </c>
       <c r="J22">
-        <v>1.027041437826475</v>
+        <v>1.005400521063721</v>
       </c>
       <c r="K22">
-        <v>1.030022278140122</v>
+        <v>1.014410747429964</v>
       </c>
       <c r="L22">
-        <v>1.034939807574845</v>
+        <v>1.008091724431491</v>
       </c>
       <c r="M22">
-        <v>1.045914190140479</v>
+        <v>1.012414434252977</v>
       </c>
       <c r="N22">
-        <v>1.013046338107578</v>
+        <v>1.005674270335442</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020411996725068</v>
+        <v>0.9751603811990402</v>
       </c>
       <c r="D23">
-        <v>1.026509360287313</v>
+        <v>1.0000169055662</v>
       </c>
       <c r="E23">
-        <v>1.031507566017817</v>
+        <v>0.9938110391721351</v>
       </c>
       <c r="F23">
-        <v>1.042581453500925</v>
+        <v>0.9984921493943166</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030605340048076</v>
+        <v>1.036881316798065</v>
       </c>
       <c r="J23">
-        <v>1.027228929041786</v>
+        <v>1.006343105806171</v>
       </c>
       <c r="K23">
-        <v>1.030186519129473</v>
+        <v>1.015275223830876</v>
       </c>
       <c r="L23">
-        <v>1.035165500479164</v>
+        <v>1.009190425562579</v>
       </c>
       <c r="M23">
-        <v>1.046197522202899</v>
+        <v>1.013780030780502</v>
       </c>
       <c r="N23">
-        <v>1.013109200627541</v>
+        <v>1.005992795183505</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021679678136497</v>
+        <v>0.9817537208774074</v>
       </c>
       <c r="D24">
-        <v>1.027432082336919</v>
+        <v>1.004653453272079</v>
       </c>
       <c r="E24">
-        <v>1.032673073689728</v>
+        <v>0.999388973061601</v>
       </c>
       <c r="F24">
-        <v>1.043971719480338</v>
+        <v>1.005109121718378</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030798939751987</v>
+        <v>1.038380985217128</v>
       </c>
       <c r="J24">
-        <v>1.027967116755155</v>
+        <v>1.009972700413614</v>
       </c>
       <c r="K24">
-        <v>1.030832317788359</v>
+        <v>1.018599338921206</v>
       </c>
       <c r="L24">
-        <v>1.036054786182076</v>
+        <v>1.013426827521255</v>
       </c>
       <c r="M24">
-        <v>1.047314196014645</v>
+        <v>1.019047105604979</v>
       </c>
       <c r="N24">
-        <v>1.013356597760017</v>
+        <v>1.007219103060651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023153776179218</v>
+        <v>0.9891275347496694</v>
       </c>
       <c r="D25">
-        <v>1.028504386052312</v>
+        <v>1.009854328652319</v>
       </c>
       <c r="E25">
-        <v>1.03403016188811</v>
+        <v>1.005658820387797</v>
       </c>
       <c r="F25">
-        <v>1.045590431272697</v>
+        <v>1.012540905947247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031018118384643</v>
+        <v>1.040015340046754</v>
       </c>
       <c r="J25">
-        <v>1.028823806409782</v>
+        <v>1.014026423768321</v>
       </c>
       <c r="K25">
-        <v>1.031580021287761</v>
+        <v>1.022301570921838</v>
       </c>
       <c r="L25">
-        <v>1.037088263677518</v>
+        <v>1.018169921034389</v>
       </c>
       <c r="M25">
-        <v>1.048612506586321</v>
+        <v>1.024947610599145</v>
       </c>
       <c r="N25">
-        <v>1.013643492049668</v>
+        <v>1.008588121827509</v>
       </c>
     </row>
   </sheetData>
